--- a/app/src/main/assets/123.xlsx
+++ b/app/src/main/assets/123.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -28,729 +28,58 @@
     <t>mac地址</t>
   </si>
   <si>
-    <t>蒋刚</t>
+    <t>张三</t>
   </si>
   <si>
-    <t>云计算</t>
+    <t xml:space="preserve"> 技术</t>
   </si>
   <si>
-    <t>AC-BC-32-97-86-21</t>
+    <t>f8:4d:89:76:33:cb</t>
   </si>
   <si>
-    <t>陈诚</t>
+    <t>f8:4d:89:76:34:cb</t>
   </si>
   <si>
-    <t>DC-E9-94-0A-89-ED</t>
+    <t>f8:4d:89:76:35:cb</t>
   </si>
   <si>
-    <t>刘宝珍</t>
+    <t>f8:4d:89:76:36:cb</t>
   </si>
   <si>
-    <t>84-5C-F3-EB-84-6C</t>
+    <t>f8:4d:89:76:37:cb</t>
   </si>
   <si>
-    <t>陶涛</t>
+    <t>f8:4d:89:76:38:cb</t>
   </si>
   <si>
-    <t>50-EB-71-4A-00-EC</t>
+    <t>f8:4d:89:76:39:cb</t>
   </si>
   <si>
-    <t>谢鹏</t>
+    <t>f8:4d:89:76:40:cb</t>
   </si>
   <si>
-    <t>李木根</t>
+    <t>f8:4d:89:76:41:cb</t>
   </si>
   <si>
-    <t>30-24-32-7E-D3-08</t>
+    <t>f8:4d:89:76:42:cb</t>
   </si>
   <si>
-    <t>牛鑫</t>
+    <t>f8:4d:89:76:43:cb</t>
   </si>
   <si>
-    <t>18-1D-EA-ED-AE-86</t>
+    <t>f8:4d:89:76:44:cb</t>
   </si>
   <si>
-    <t>王斌</t>
+    <t>f8:4d:89:76:45:cb</t>
   </si>
   <si>
-    <t>下游技术部</t>
+    <t>f8:4d:89:76:46:cb</t>
   </si>
   <si>
-    <t>3c:06:30:42:4c:f8</t>
+    <t>f8:4d:89:76:47:cb</t>
   </si>
   <si>
-    <t>程帅</t>
-  </si>
-  <si>
-    <t>c4:b3:01:cf:04:2b</t>
-  </si>
-  <si>
-    <t>刘强</t>
-  </si>
-  <si>
-    <t>90:9c:4a:b8:c5:4e</t>
-  </si>
-  <si>
-    <t>郑小辉</t>
-  </si>
-  <si>
-    <t>90:9c:4a:bf:f1:64</t>
-  </si>
-  <si>
-    <t>杨唯</t>
-  </si>
-  <si>
-    <t>a4:83:e7:51:f0:be</t>
-  </si>
-  <si>
-    <t>杨超</t>
-  </si>
-  <si>
-    <t>3c:06:30:29:93:7b</t>
-  </si>
-  <si>
-    <t>王晨</t>
-  </si>
-  <si>
-    <t>f0:18:98:59:58:b6</t>
-  </si>
-  <si>
-    <t>朱晓杰</t>
-  </si>
-  <si>
-    <t>18:65:90:dc:dd:7f</t>
-  </si>
-  <si>
-    <t>刘冰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f0:2f:4b:15:2c:3d </t>
-  </si>
-  <si>
-    <t>党纲</t>
-  </si>
-  <si>
-    <t>上游技术部</t>
-  </si>
-  <si>
-    <t>3c:22:fb:94:99:96</t>
-  </si>
-  <si>
-    <t>郑海清</t>
-  </si>
-  <si>
-    <t>3c:22:fb:80:8e:b1</t>
-  </si>
-  <si>
-    <t>崔娟</t>
-  </si>
-  <si>
-    <t>08:f8:bc:69:b8:39</t>
-  </si>
-  <si>
-    <t>冀鑫鑫</t>
-  </si>
-  <si>
-    <t>60:f8:1d:ad:39:ea</t>
-  </si>
-  <si>
-    <t>安柯榕</t>
-  </si>
-  <si>
-    <t>f8:ff:c2:21:cb:3f</t>
-  </si>
-  <si>
-    <t>蔡进龙</t>
-  </si>
-  <si>
-    <t>f0:18:98:4e:b3:92</t>
-  </si>
-  <si>
-    <t>许树轩</t>
-  </si>
-  <si>
-    <t>f8:ff:c2:29:0d:98</t>
-  </si>
-  <si>
-    <t>司蓓蓓</t>
-  </si>
-  <si>
-    <t>c4:b3:01:b5:b8:86</t>
-  </si>
-  <si>
-    <t>魏玉帅</t>
-  </si>
-  <si>
-    <t>a4:83:e7:b3:b7:ef</t>
-  </si>
-  <si>
-    <t>何涛</t>
-  </si>
-  <si>
-    <t>14:7d:da:7d:41:ba</t>
-  </si>
-  <si>
-    <t>徐安群</t>
-  </si>
-  <si>
-    <t>3c:06:30:0e:3d:88</t>
-  </si>
-  <si>
-    <t>邢京荣</t>
-  </si>
-  <si>
-    <t>a4:83:e7:3f:32:51</t>
-  </si>
-  <si>
-    <t>刘双</t>
-  </si>
-  <si>
-    <t>‎98-2C-BC-C2-D7-E2</t>
-  </si>
-  <si>
-    <t>谢雁彬</t>
-  </si>
-  <si>
-    <t>50-2F-9B-D2-7E-D6</t>
-  </si>
-  <si>
-    <t>王红雷</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a0:78:17:7c:f0:18</t>
-    </r>
-  </si>
-  <si>
-    <t>叶梦雅</t>
-  </si>
-  <si>
-    <t>20-16-B9-79-EC-E9</t>
-  </si>
-  <si>
-    <t>李锦玉</t>
-  </si>
-  <si>
-    <t>3c:06:30:3f:37:1d</t>
-  </si>
-  <si>
-    <t>王丽丹</t>
-  </si>
-  <si>
-    <t>38:f9:d3:9a:5d:70</t>
-  </si>
-  <si>
-    <t>路佳贺</t>
-  </si>
-  <si>
-    <t>f0:18:98:40:4d:a0</t>
-  </si>
-  <si>
-    <t>刘占龙</t>
-  </si>
-  <si>
-    <t>4c:32:75:8c:fe:af</t>
-  </si>
-  <si>
-    <t>王忠</t>
-  </si>
-  <si>
-    <t>8c:85:90:29:91:62</t>
-  </si>
-  <si>
-    <t>王博宇</t>
-  </si>
-  <si>
-    <t>3c:06:30:22:b6:8b</t>
-  </si>
-  <si>
-    <t>严依</t>
-  </si>
-  <si>
-    <t>3c:22:fb:e5:8d:7e</t>
-  </si>
-  <si>
-    <t>李康</t>
-  </si>
-  <si>
-    <t>38:f9:d3:df:4a:7c</t>
-  </si>
-  <si>
-    <t>刘硕</t>
-  </si>
-  <si>
-    <t>BC-A8-A6-AF-B5-3B</t>
-  </si>
-  <si>
-    <t>闫晓伟</t>
-  </si>
-  <si>
-    <t>养殖技术部</t>
-  </si>
-  <si>
-    <t>8C-8C-AA-7B-49-31</t>
-  </si>
-  <si>
-    <t>冀文元</t>
-  </si>
-  <si>
-    <t>f8:ff:c2:10:c0:9b</t>
-  </si>
-  <si>
-    <t>周义顺</t>
-  </si>
-  <si>
-    <t>ac:bc:32:83:a2:55</t>
-  </si>
-  <si>
-    <t>马龙</t>
-  </si>
-  <si>
-    <t>ac:bc:32:af:7d:75</t>
-  </si>
-  <si>
-    <t>孙洪雨</t>
-  </si>
-  <si>
-    <t>3c:06:30:2b:2b:d7</t>
-  </si>
-  <si>
-    <t>张东超</t>
-  </si>
-  <si>
-    <t>下游技术波</t>
-  </si>
-  <si>
-    <t>1c:91:80:cd:f6:d3</t>
-  </si>
-  <si>
-    <t>李文杰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98:5a:eb:8f:48:80 </t>
-  </si>
-  <si>
-    <t>刘良君</t>
-  </si>
-  <si>
-    <t>36:6f:68:34:6c:c0</t>
-  </si>
-  <si>
-    <t>佟新华</t>
-  </si>
-  <si>
-    <t>a4:5e:60:d6:14:15</t>
-  </si>
-  <si>
-    <t>郑天雨</t>
-  </si>
-  <si>
-    <t>B4-6B-FC-90-CD-C4</t>
-  </si>
-  <si>
-    <t>刘月明</t>
-  </si>
-  <si>
-    <t>a4:5e:60:f0:43:e9</t>
-  </si>
-  <si>
-    <t>叶林</t>
-  </si>
-  <si>
-    <t>38:f9:d3:65:ce:88</t>
-  </si>
-  <si>
-    <t>王岩丰</t>
-  </si>
-  <si>
-    <t>4C-D5-77-CB-5A-57</t>
-  </si>
-  <si>
-    <t>郭莹</t>
-  </si>
-  <si>
-    <t>34-C9-3D-55-FF-23</t>
-  </si>
-  <si>
-    <t>李慧娟</t>
-  </si>
-  <si>
-    <t>38:f9:d3:b1:c2:69</t>
-  </si>
-  <si>
-    <t>魏星宇</t>
-  </si>
-  <si>
-    <t>下游产品部</t>
-  </si>
-  <si>
-    <t>a0:78:17:90:77:2f</t>
-  </si>
-  <si>
-    <t>孙栀梓</t>
-  </si>
-  <si>
-    <t>F8-94-C2-29-5E-B4</t>
-  </si>
-  <si>
-    <t>焦华峰</t>
-  </si>
-  <si>
-    <t>ac:bc:32:9a:a2:f1</t>
-  </si>
-  <si>
-    <t>王静</t>
-  </si>
-  <si>
-    <t>1c:91:80:e6:69:f8</t>
-  </si>
-  <si>
-    <t>马永珍</t>
-  </si>
-  <si>
-    <t>f8:4d:89:76:33:ca</t>
-  </si>
-  <si>
-    <t>崔宗民</t>
-  </si>
-  <si>
-    <t>dc:a9:04:86:a3:de</t>
-  </si>
-  <si>
-    <t>王继辉</t>
-  </si>
-  <si>
-    <t>34-7D-F6-19-A0-9F</t>
-  </si>
-  <si>
-    <t>李猛</t>
-  </si>
-  <si>
-    <t>c4:91:0c:b2:15:e8</t>
-  </si>
-  <si>
-    <t>刘承超</t>
-  </si>
-  <si>
-    <t>e0:b5:5f:ea:dd:1a</t>
-  </si>
-  <si>
-    <t>王燕斌</t>
-  </si>
-  <si>
-    <t>d0:a6:37:ea:48:b7</t>
-  </si>
-  <si>
-    <t>刘飞琦</t>
-  </si>
-  <si>
-    <t>A4-42-3B-8E-97-7F</t>
-  </si>
-  <si>
-    <t>张家铭</t>
-  </si>
-  <si>
-    <t>8c:85:90:47:2c:73</t>
-  </si>
-  <si>
-    <t>毛志明</t>
-  </si>
-  <si>
-    <t>3c:22:fb:e9:3d:02</t>
-  </si>
-  <si>
-    <t>蒋浩</t>
-  </si>
-  <si>
-    <t>f8:4d:89:5e:e4:ed</t>
-  </si>
-  <si>
-    <t>王旭东</t>
-  </si>
-  <si>
-    <t>68:3E:26:76:76:D6</t>
-  </si>
-  <si>
-    <t>高彦回</t>
-  </si>
-  <si>
-    <t>40-1C-83-A6-85-1A</t>
-  </si>
-  <si>
-    <t>李博</t>
-  </si>
-  <si>
-    <t>F8-63-3F-9F-FB-CC</t>
-  </si>
-  <si>
-    <t>吴勇</t>
-  </si>
-  <si>
-    <t>28-11-A8-8A-73-CF</t>
-  </si>
-  <si>
-    <t>李艳妮</t>
-  </si>
-  <si>
-    <t>98:01:a7:dd:8e:cb</t>
-  </si>
-  <si>
-    <t>陈丽</t>
-  </si>
-  <si>
-    <t>a0:78:17:af:9e:a4</t>
-  </si>
-  <si>
-    <t>张波</t>
-  </si>
-  <si>
-    <t>f4:d4:88:7b:ea:0d</t>
-  </si>
-  <si>
-    <t>刘亚伟</t>
-  </si>
-  <si>
-    <t>90:9c:4a:cc:ef:0a</t>
-  </si>
-  <si>
-    <t>李蛟龙</t>
-  </si>
-  <si>
-    <t>a0:78:17:92:7d:87</t>
-  </si>
-  <si>
-    <t>马栋</t>
-  </si>
-  <si>
-    <t>f8:4d:89:7c:7f:70</t>
-  </si>
-  <si>
-    <t>曾威</t>
-  </si>
-  <si>
-    <t>3c:06:30:15:af:5c</t>
-  </si>
-  <si>
-    <t>李鑫海</t>
-  </si>
-  <si>
-    <t>98:01:a7:a1:3c:b9</t>
-  </si>
-  <si>
-    <t>张佳炫</t>
-  </si>
-  <si>
-    <t>78:4f:43:59:e0:7c</t>
-  </si>
-  <si>
-    <t>张雨婷</t>
-  </si>
-  <si>
-    <t>a0:78:17:87:02:84</t>
-  </si>
-  <si>
-    <t>吴震</t>
-  </si>
-  <si>
-    <t>14:7d:da:ab:30:e7</t>
-  </si>
-  <si>
-    <t>宋丹丹</t>
-  </si>
-  <si>
-    <t>90:9c:4a:c4:41:61</t>
-  </si>
-  <si>
-    <t>董丽娜</t>
-  </si>
-  <si>
-    <t>38:f9:d3:a9:52:f8</t>
-  </si>
-  <si>
-    <t>张升</t>
-  </si>
-  <si>
-    <t>a4:83:e7:5b:71:70</t>
-  </si>
-  <si>
-    <t>胡秀红</t>
-  </si>
-  <si>
-    <t>3c:06:30:3b:73:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙中平
-</t>
-  </si>
-  <si>
-    <t>3c:06:30:16:3e:9d</t>
-  </si>
-  <si>
-    <t>汪明</t>
-  </si>
-  <si>
-    <t>f8:ff:c2:04:88:f7</t>
-  </si>
-  <si>
-    <t>崔文超</t>
-  </si>
-  <si>
-    <t>88:66:5a:24:40:ba</t>
-  </si>
-  <si>
-    <t>李霞</t>
-  </si>
-  <si>
-    <t>供应链</t>
-  </si>
-  <si>
-    <t>D8-3B-BF-19-BF-27</t>
-  </si>
-  <si>
-    <t>王伟楠</t>
-  </si>
-  <si>
-    <t>3C-F0-11-26-E7-B5</t>
-  </si>
-  <si>
-    <t>张凯</t>
-  </si>
-  <si>
-    <t>于泽艺</t>
-  </si>
-  <si>
-    <t>f8:ff:c2:21:85:87</t>
-  </si>
-  <si>
-    <t>弓晓萌</t>
-  </si>
-  <si>
-    <t>a0:78:17:9a:ca:42</t>
-  </si>
-  <si>
-    <t>杨磊</t>
-  </si>
-  <si>
-    <t>50:ed:3c:3e:5a:15</t>
-  </si>
-  <si>
-    <t>程明</t>
-  </si>
-  <si>
-    <t>08-5B-D6-62-0D-90</t>
-  </si>
-  <si>
-    <t>郝振兴</t>
-  </si>
-  <si>
-    <t>8c:85:90:b2:29:ec</t>
-  </si>
-  <si>
-    <t>高世霞</t>
-  </si>
-  <si>
-    <t>6C-2B-59-48-32-45</t>
-  </si>
-  <si>
-    <t>史小琴</t>
-  </si>
-  <si>
-    <t>CC-2F-71-5A-9B-C8</t>
-  </si>
-  <si>
-    <t>李通</t>
-  </si>
-  <si>
-    <t>f0:18:98:57:72:57</t>
-  </si>
-  <si>
-    <t>王志新</t>
-  </si>
-  <si>
-    <t>6E-74-3A-FF-0C-14</t>
-  </si>
-  <si>
-    <t>李奕含</t>
-  </si>
-  <si>
-    <t>人力资源部</t>
-  </si>
-  <si>
-    <t>1c:91:80:e7:75:4d</t>
-  </si>
-  <si>
-    <t>李春艳</t>
-  </si>
-  <si>
-    <t>3c:06:30:0a:40:02</t>
-  </si>
-  <si>
-    <t>侯启发</t>
-  </si>
-  <si>
-    <t>50:ed:3c:5a:28:ab</t>
-  </si>
-  <si>
-    <t>游宇瑶</t>
-  </si>
-  <si>
-    <t>00-FF-8F-7E-10-E1</t>
-  </si>
-  <si>
-    <t>田猛</t>
-  </si>
-  <si>
-    <t>14:7d:da:83:cf:a4</t>
-  </si>
-  <si>
-    <t>高陆海</t>
-  </si>
-  <si>
-    <t>大数据</t>
-  </si>
-  <si>
-    <t>44-85-00-DB-03-7B</t>
-  </si>
-  <si>
-    <t>荆森辰</t>
-  </si>
-  <si>
-    <t>18:65:90:d3:1d:03</t>
-  </si>
-  <si>
-    <t>李晓涛</t>
-  </si>
-  <si>
-    <t>3c:06:30:3e:9d:9c</t>
-  </si>
-  <si>
-    <t>马跃</t>
-  </si>
-  <si>
-    <t>a0:78:17:93:c8:25</t>
-  </si>
-  <si>
-    <t>罗博</t>
-  </si>
-  <si>
-    <t>f8:ff:c2:2d:33:b4</t>
-  </si>
-  <si>
-    <t>刘瑞</t>
-  </si>
-  <si>
-    <t>a0:78:17:5f:d7:ef</t>
-  </si>
-  <si>
-    <t>张青</t>
-  </si>
-  <si>
-    <t>B4-AE-2B-30-35-9F</t>
+    <t>f8:4d:89:76:48:cb</t>
   </si>
 </sst>
 </file>
@@ -758,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -780,18 +109,6 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF262626"/>
-      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -826,7 +143,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -840,6 +179,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -848,16 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -872,23 +257,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -896,60 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -964,49 +281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,19 +317,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,49 +353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,13 +389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,27 +466,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1186,7 +488,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,25 +508,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1247,11 +536,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,6 +557,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1278,149 +580,149 @@
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1431,29 +733,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1785,7 +1078,7 @@
   <dimension ref="A1:Z178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="16.8"/>
@@ -1831,13 +1124,13 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
@@ -1865,14 +1158,14 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1899,14 +1192,14 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1933,14 +1226,14 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1967,13 +1260,15 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1999,14 +1294,14 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
+      <c r="A7" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2033,14 +1328,14 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2067,14 +1362,14 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+      <c r="A9" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2101,14 +1396,14 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
+      <c r="A10" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2135,14 +1430,14 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+      <c r="A11" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2169,14 +1464,14 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
+      <c r="A12" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2203,14 +1498,14 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
+      <c r="A13" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2237,14 +1532,14 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
+      <c r="A14" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2271,14 +1566,14 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+      <c r="A15" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2305,14 +1600,14 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+      <c r="A16" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2339,14 +1634,14 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2373,15 +1668,9 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2407,15 +1696,9 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2441,15 +1724,9 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2475,15 +1752,9 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2509,15 +1780,9 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2543,15 +1808,9 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="1:26">
-      <c r="A23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2577,15 +1836,9 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2611,15 +1864,9 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2645,15 +1892,9 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2679,15 +1920,9 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2713,15 +1948,9 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2747,15 +1976,9 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2781,15 +2004,9 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2815,15 +2032,9 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2849,15 +2060,9 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2883,15 +2088,9 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2917,15 +2116,9 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2951,15 +2144,9 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2985,15 +2172,9 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3019,15 +2200,9 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:26">
-      <c r="A37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3053,15 +2228,9 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3087,15 +2256,9 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3121,15 +2284,9 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3155,15 +2312,9 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3189,15 +2340,9 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3223,15 +2368,9 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3257,15 +2396,9 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3291,15 +2424,9 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3325,15 +2452,9 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3359,15 +2480,9 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3393,15 +2508,9 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -3427,15 +2536,9 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3461,15 +2564,9 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3495,15 +2592,9 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3529,15 +2620,9 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3563,15 +2648,9 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3597,15 +2676,9 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3631,15 +2704,9 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3665,15 +2732,9 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3699,15 +2760,9 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3733,15 +2788,9 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3767,15 +2816,9 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3801,15 +2844,9 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3835,15 +2872,9 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3869,15 +2900,9 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3903,15 +2928,9 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3937,15 +2956,9 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3971,15 +2984,9 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -4005,15 +3012,9 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4039,15 +3040,9 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4073,15 +3068,9 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4107,15 +3096,9 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4141,15 +3124,9 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4175,15 +3152,9 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4209,15 +3180,9 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -4243,15 +3208,9 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -4277,15 +3236,9 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -4311,15 +3264,9 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -4345,15 +3292,9 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4379,15 +3320,9 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4413,15 +3348,9 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -4447,15 +3376,9 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -4481,15 +3404,9 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -4515,15 +3432,9 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -4549,15 +3460,9 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4583,15 +3488,9 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4617,15 +3516,9 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4651,15 +3544,9 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -4685,15 +3572,9 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4719,15 +3600,9 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4753,15 +3628,9 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -4787,15 +3656,9 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -4821,15 +3684,9 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -4855,15 +3712,9 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:26">
-      <c r="A91" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -4889,15 +3740,9 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -4923,15 +3768,9 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4957,15 +3796,9 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>194</v>
-      </c>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4991,15 +3824,9 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -5025,12 +3852,8 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5057,15 +3880,9 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -5091,15 +3908,9 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>201</v>
-      </c>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -5125,15 +3936,9 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>203</v>
-      </c>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -5159,15 +3964,9 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -5193,15 +3992,9 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -5227,15 +4020,9 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -5261,15 +4048,9 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26">
-      <c r="A103" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -5295,15 +4076,9 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -5329,15 +4104,9 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="9"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -5363,15 +4132,9 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26">
-      <c r="A106" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -5397,15 +4160,9 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26">
-      <c r="A107" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -5431,15 +4188,9 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -5465,15 +4216,9 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26">
-      <c r="A109" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -5499,15 +4244,9 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26">
-      <c r="A110" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -5533,15 +4272,9 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -5567,15 +4300,9 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26">
-      <c r="A112" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -5601,15 +4328,9 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -5635,15 +4356,9 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -5669,15 +4384,9 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26">
-      <c r="A115" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -5703,15 +4412,9 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -5737,15 +4440,9 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
